--- a/public/downloads/Template Files/Banking Overview report result.xlsx
+++ b/public/downloads/Template Files/Banking Overview report result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C65F7-752D-4B95-866E-E4B3BCF0C2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Banking Overview Report result" sheetId="1" r:id="rId1"/>
+    <sheet name="Banking Overview Report Result" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Raw Data'!$A$1:$Q$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20" description="Connection to the 'TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20" description="Connection to the 'TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TBankAccountReport?IgnoreDates=true&amp;Search=Deleted%20!%3D%20true&amp;OrderBy=Date%20]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
   <si>
     <t>T.GlobalRef</t>
   </si>
@@ -277,27 +278,12 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>30/11/2022</t>
-  </si>
-  <si>
-    <t>18/08/2022</t>
-  </si>
-  <si>
-    <t>23/07/2022</t>
-  </si>
-  <si>
-    <t>22/07/2022</t>
-  </si>
-  <si>
-    <t>30/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -336,9 +322,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -634,7 +619,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="18">
     <queryTableFields count="17">
       <queryTableField id="1" name="T.GlobalRef" tableColumnId="18"/>
@@ -660,28 +645,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" displayName="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" ref="A1:Q26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" displayName="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" ref="A1:Q26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="18" uniqueName="18" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" uniqueName="2" name="T.Date" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" uniqueName="3" name="T.Type" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="4" uniqueName="4" name="T.AccountName" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="5" uniqueName="5" name="T.Active" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="6" uniqueName="6" name="T.Amountinc" queryTableFieldId="6" dataDxfId="11"/>
-    <tableColumn id="7" uniqueName="7" name="T.Amount" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="8" uniqueName="8" name="T.ClassName" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="9" uniqueName="9" name="T.SaleID" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="10" uniqueName="10" name="T.PurchaseOrderID" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" uniqueName="11" name="T.PaymentID" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" uniqueName="12" name="T.PrepaymentID" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" uniqueName="13" name="T.TransID" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="14" uniqueName="14" name="T.Reconciled" queryTableFieldId="14" dataDxfId="3"/>
-    <tableColumn id="15" uniqueName="15" name="T.Notes" queryTableFieldId="15" dataDxfId="2"/>
-    <tableColumn id="16" uniqueName="16" name="T.ChqRefNo" queryTableFieldId="16" dataDxfId="1"/>
-    <tableColumn id="17" uniqueName="17" name="T.Payee" queryTableFieldId="17" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="T.Date" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="T.Type" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="T.AccountName" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="T.Active" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="T.Amountinc" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="T.Amount" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="T.ClassName" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="T.SaleID" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="T.PurchaseOrderID" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="T.PaymentID" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="T.PrepaymentID" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="T.TransID" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="T.Reconciled" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="T.Notes" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="T.ChqRefNo" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="T.Payee" queryTableFieldId="17" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -947,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,686 +953,908 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45078</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2023-01-06 00:00:00</v>
+      </c>
+      <c r="B2" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
         <v>1500</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Fixed Asset</v>
+      </c>
+      <c r="E2" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
         <v>56000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
         <v>56000</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-11-30 00:00:00</v>
+      </c>
+      <c r="B3" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1424</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E3" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-100</v>
+      </c>
+      <c r="F3" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-100</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Receipt Claim</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B4" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1490</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Journal Entry</v>
+      </c>
+      <c r="E4" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B5" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1492</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Journal Entry</v>
+      </c>
+      <c r="E5" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-10-12 00:00:00</v>
+      </c>
+      <c r="B6" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1495</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Journal Entry</v>
+      </c>
+      <c r="E6" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-10-04 00:00:00</v>
+      </c>
+      <c r="B7" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1423</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E7" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-900</v>
+      </c>
+      <c r="F7" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-900</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Receipt Claim</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-09-06 00:00:00</v>
+      </c>
+      <c r="B8" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1411</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Supplier Payment</v>
+      </c>
+      <c r="E8" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-87.34</v>
+      </c>
+      <c r="F8" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-87.34</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-08-18 00:00:00</v>
+      </c>
+      <c r="B9" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1350</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Customer Payment</v>
+      </c>
+      <c r="E9" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>550</v>
+      </c>
+      <c r="F9" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>550</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-08-11 00:00:00</v>
+      </c>
+      <c r="B10" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1421</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E10" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-640</v>
+      </c>
+      <c r="F10" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-640</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>- Reimbursable : true</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-23 00:00:00</v>
+      </c>
+      <c r="B11" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1415</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E11" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-75</v>
+      </c>
+      <c r="F11" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-75</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>sample</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-23 00:00:00</v>
+      </c>
+      <c r="B12" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1416</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E12" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-150</v>
+      </c>
+      <c r="F12" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-150</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>test by wang</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-23 00:00:00</v>
+      </c>
+      <c r="B13" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1418</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E13" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-150</v>
+      </c>
+      <c r="F13" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-150</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>test by wang</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-23 00:00:00</v>
+      </c>
+      <c r="B14" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1420</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E14" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-75</v>
+      </c>
+      <c r="F14" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-75</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>sample</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-23 00:00:00</v>
+      </c>
+      <c r="B15" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1422</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E15" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-150</v>
+      </c>
+      <c r="F15" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-150</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>test by wang</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-22 00:00:00</v>
+      </c>
+      <c r="B16" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1417</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E16" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-120</v>
+      </c>
+      <c r="F16" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-120</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-22 00:00:00</v>
+      </c>
+      <c r="B17" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1419</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E17" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-120</v>
+      </c>
+      <c r="F17" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-120</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-07-05 00:00:00</v>
+      </c>
+      <c r="B18" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>1414</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Credit Card</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Cheque</v>
+      </c>
+      <c r="E18" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>110</v>
+      </c>
+      <c r="F18" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v>Test</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B19" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E19" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>50</v>
+      </c>
+      <c r="F19" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B20" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E20" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-915</v>
+      </c>
+      <c r="F20" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-915</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B21" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E21" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>2200</v>
+      </c>
+      <c r="F21" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>2200</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B22" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
         <v>21</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="3">
-        <v>393</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-100</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-100</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44905</v>
-      </c>
-      <c r="B4" s="3">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44905</v>
-      </c>
-      <c r="B5" s="3">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44905</v>
-      </c>
-      <c r="B6" s="3">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44661</v>
-      </c>
-      <c r="B7" s="3">
-        <v>371</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-900</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-900</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44721</v>
-      </c>
-      <c r="B8" s="3">
-        <v>236</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-87.34</v>
-      </c>
-      <c r="F8" s="5">
-        <v>-87.34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3">
-        <v>264</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5">
-        <v>550</v>
-      </c>
-      <c r="F9" s="5">
-        <v>550</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44873</v>
-      </c>
-      <c r="B10" s="3">
-        <v>363</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-640</v>
-      </c>
-      <c r="F10" s="5">
-        <v>-640</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="3">
-        <v>365</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-150</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-150</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="3">
-        <v>362</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-75</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-75</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="3">
-        <v>352</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5">
-        <v>-150</v>
-      </c>
-      <c r="F13" s="5">
-        <v>-150</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="3">
-        <v>350</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-150</v>
-      </c>
-      <c r="F14" s="5">
-        <v>-150</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="3">
-        <v>349</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-75</v>
-      </c>
-      <c r="F15" s="5">
-        <v>-75</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="3">
-        <v>360</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5">
-        <v>-120</v>
-      </c>
-      <c r="F16" s="5">
-        <v>-120</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="3">
-        <v>351</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5">
-        <v>-120</v>
-      </c>
-      <c r="F17" s="5">
-        <v>-120</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44688</v>
-      </c>
-      <c r="B18" s="3">
-        <v>335</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5">
-        <v>110</v>
-      </c>
-      <c r="F18" s="5">
-        <v>110</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="3">
-        <v>786</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="5">
-        <v>80</v>
-      </c>
-      <c r="F19" s="5">
-        <v>80</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="C22" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E22" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B23" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Bank</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E23" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>-12739.95</v>
+      </c>
+      <c r="F23" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>-12739.95</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B24" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
         <v>785</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="C24" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Credit Card</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E24" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
         <v>55</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F24" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
         <v>55</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="G24" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B25" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
         <v>662</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C25" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Master Card</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E25" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
         <v>22</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F25" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
         <v>22</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="3">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="5">
-        <v>50</v>
-      </c>
-      <c r="F22" s="5">
-        <v>50</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="3">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="5">
-        <v>-915</v>
-      </c>
-      <c r="F23" s="5">
-        <v>-915</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="3">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2200</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="3">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="5">
-        <v>15</v>
-      </c>
-      <c r="F25" s="5">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="5">
-        <v>-12739.95</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-12739.95</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="3" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Date]]</f>
+        <v>2022-06-30 00:00:00</v>
+      </c>
+      <c r="B26" s="2">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.TransID]]</f>
+        <v>663</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.AccountName]]</f>
+        <v>Master Card</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Type]]</f>
+        <v>Closing Date Summary</v>
+      </c>
+      <c r="E26" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amount]]</f>
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Amountinc]]</f>
+        <v>100</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.ClassName]]</f>
+        <v>Default</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="str">
+        <f>TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20[[#This Row],[T.Notes]]</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,33 +1862,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,797 +2475,797 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="b">
+      <c r="E12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-150</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-150</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>350</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>1416</v>
       </c>
-      <c r="N12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="b">
+      <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>-150</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>-150</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>352</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>1418</v>
       </c>
-      <c r="N13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2" t="b">
+      <c r="E14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>-75</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>-75</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>362</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>1420</v>
       </c>
-      <c r="N14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="P14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="b">
+      <c r="E15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-150</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>-150</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>365</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>1422</v>
       </c>
-      <c r="N15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="b">
+      <c r="E16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>-120</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>-120</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>351</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>1417</v>
       </c>
-      <c r="N16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="P16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="b">
+      <c r="E17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>-120</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>-120</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>360</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>1419</v>
       </c>
-      <c r="N17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="2" t="b">
+      <c r="E18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>110</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>110</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>335</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>1414</v>
       </c>
-      <c r="N18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="s">
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="b">
+      <c r="E19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>50</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>50</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>69</v>
       </c>
-      <c r="N19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="b">
+      <c r="E20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>-915</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>-915</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>53</v>
       </c>
-      <c r="N20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="2" t="b">
+      <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2200</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>2200</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>37</v>
       </c>
-      <c r="N21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="b">
+      <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>15</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>21</v>
       </c>
-      <c r="N22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="2" t="b">
+      <c r="E23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>-12739.95</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>-12739.95</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="2" t="b">
+      <c r="E24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>55</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>55</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>785</v>
       </c>
-      <c r="N24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="2" t="b">
+      <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>22</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>22</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>662</v>
       </c>
-      <c r="N25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="2" t="b">
+      <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>100</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>100</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <v>663</v>
       </c>
-      <c r="N26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="2" t="s">
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
